--- a/mobi_client/mobi_client/mobi_config/excel/995_NPC组装表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/995_NPC组装表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="201">
   <si>
     <t>id</t>
   </si>
@@ -238,7 +238,7 @@
     <t>男标准身高体重员工</t>
   </si>
   <si>
-    <t>255;0;0|255;0;0;0.2;0.2|255;255;255;0.2;0.2|255;255;255;0.2;0.2</t>
+    <t>255;255;255|255;255;255;0;1|255;255;255;0;1|255;255;255;0;1</t>
   </si>
   <si>
     <t>男用头发2</t>
@@ -265,96 +265,93 @@
     <t>标准成女2</t>
   </si>
   <si>
+    <t>默认衣服标准身高体重成年女性</t>
+  </si>
+  <si>
+    <t>255;255;255|230;20;20;0;1|80;195;49;0;1|57;140;36;0;1</t>
+  </si>
+  <si>
+    <t>女用头发8</t>
+  </si>
+  <si>
+    <t>221|152|53|0|1</t>
+  </si>
+  <si>
+    <t>F_A_N_N_normal_2</t>
+  </si>
+  <si>
+    <t>Common_Hair_0_8</t>
+  </si>
+  <si>
+    <t>A为成年</t>
+  </si>
+  <si>
+    <t>F为胖</t>
+  </si>
+  <si>
+    <t>S为矮</t>
+  </si>
+  <si>
+    <t>标准成女3</t>
+  </si>
+  <si>
     <t>灰兜帽短裤成年女</t>
   </si>
   <si>
-    <t>0;0;0|66;134;255;0;1|227;255;0;0;0.68|255;0;44;0;1</t>
+    <t>255;255;255|137;167;219;0;1|227;255;0;0;0.68|255;0;44;0;1</t>
+  </si>
+  <si>
+    <t>女用头发6</t>
+  </si>
+  <si>
+    <t>164|0|0|0|1</t>
+  </si>
+  <si>
+    <t>F_A_N_N_Normal_1_1</t>
+  </si>
+  <si>
+    <t>E为老年</t>
+  </si>
+  <si>
+    <t>标准成女4</t>
+  </si>
+  <si>
+    <t>Common_Hair_0_6</t>
+  </si>
+  <si>
+    <t>标准成女5</t>
   </si>
   <si>
     <t>女用头发2</t>
   </si>
   <si>
-    <t>164|0|0|0|1</t>
-  </si>
-  <si>
-    <t>F_A_N_N_Normal_1_1</t>
-  </si>
-  <si>
     <t>Common_Hair_0_2</t>
   </si>
   <si>
-    <t>A为成年</t>
-  </si>
-  <si>
-    <t>F为胖</t>
-  </si>
-  <si>
-    <t>S为矮</t>
-  </si>
-  <si>
-    <t>标准成女3</t>
-  </si>
-  <si>
-    <t>255;255;255|66;134;255;0;1|227;255;0;0;0.68|255;0;44;0;1</t>
-  </si>
-  <si>
-    <t>女用头发6</t>
-  </si>
-  <si>
-    <t>E为老年</t>
-  </si>
-  <si>
-    <t>标准成女4</t>
-  </si>
-  <si>
-    <t>255;0;0|66;134;255;0;1|227;255;0;0;0.68|255;0;44;0;1</t>
-  </si>
-  <si>
-    <t>Common_Hair_0_6</t>
-  </si>
-  <si>
-    <t>标准成女5</t>
-  </si>
-  <si>
-    <t>255;255;0|66;134;255;0;1|227;255;0;0;0.68|255;0;44;0;1</t>
-  </si>
-  <si>
     <t>标准成女6</t>
   </si>
   <si>
-    <t>255;0;255|66;134;255;0;1|227;255;0;0;0.68|255;0;44;0;1</t>
-  </si>
-  <si>
     <t>标准成女7</t>
   </si>
   <si>
-    <t>0;255;0|66;134;255;0;1|227;255;0;0;0.68|255;0;44;0;1</t>
-  </si>
-  <si>
     <t>标准成女8</t>
   </si>
   <si>
-    <t>0;0;255|66;134;255;0;1|227;255;0;0;0.68|255;0;44;0;1</t>
-  </si>
-  <si>
     <t>标准成女9</t>
   </si>
   <si>
-    <t>0;255;255|66;134;255;0;1|227;255;0;0;0.68|255;0;44;0;1</t>
-  </si>
-  <si>
     <t>标准成女10</t>
   </si>
   <si>
-    <t>255;114;0|66;134;255;0;1|227;255;0;0;0.68|255;0;44;0;1</t>
+    <t>255;255;146|137;167;219;0;1|227;255;0;0;0.68|255;0;44;0;1</t>
+  </si>
+  <si>
+    <t>200|255|194|0|1</t>
   </si>
   <si>
     <t>标准成女11</t>
   </si>
   <si>
-    <t>255;255;146|66;134;255;0;1|227;255;0;0;0.68|255;0;44;0;1</t>
-  </si>
-  <si>
     <t>标准成女12</t>
   </si>
   <si>
@@ -382,6 +379,9 @@
     <t>标准成女20</t>
   </si>
   <si>
+    <t>255;255;255|66;134;255;0;1|22;0;106;0;1|0;130;255;0;1</t>
+  </si>
+  <si>
     <t>"嫌疑人"</t>
   </si>
   <si>
@@ -400,175 +400,181 @@
     <t>M_A_N_N_normal_2_1</t>
   </si>
   <si>
+    <t>男员工3</t>
+  </si>
+  <si>
+    <t>蓝白背心长裤男</t>
+  </si>
+  <si>
+    <t>179;194;214|89;132;170;0;1|129;126;127;0;1|89;132;170;0;1</t>
+  </si>
+  <si>
+    <t>171|171|171|0|1</t>
+  </si>
+  <si>
+    <t>M_A_N_N_normal_2</t>
+  </si>
+  <si>
+    <t>Common_Hair_1_3</t>
+  </si>
+  <si>
+    <t>男员工4</t>
+  </si>
+  <si>
+    <t>168;197;124|149;185;148;0;1|103;95;104;0;1|123;154;125;0;1</t>
+  </si>
+  <si>
+    <t>195|195|195|0|1</t>
+  </si>
+  <si>
+    <t>男员工5</t>
+  </si>
+  <si>
+    <t>男用头发3</t>
+  </si>
+  <si>
+    <t>81|75|224|0|1</t>
+  </si>
+  <si>
+    <t>男员工6</t>
+  </si>
+  <si>
+    <t>255;255;255|171;171;171;0;1|183;183;183;0;1|202;202;202;0;1</t>
+  </si>
+  <si>
+    <t>118|118|118|0|1</t>
+  </si>
+  <si>
+    <t>男员工7</t>
+  </si>
+  <si>
+    <t>135|135|135|0|1</t>
+  </si>
+  <si>
+    <t>男员工8</t>
+  </si>
+  <si>
+    <t>男员工9</t>
+  </si>
+  <si>
+    <t>男员工10</t>
+  </si>
+  <si>
+    <t>男员工11</t>
+  </si>
+  <si>
+    <t>男员工12</t>
+  </si>
+  <si>
+    <t>男员工13</t>
+  </si>
+  <si>
+    <t>男员工14</t>
+  </si>
+  <si>
+    <t>男员工15</t>
+  </si>
+  <si>
+    <t>男员工16</t>
+  </si>
+  <si>
+    <t>男员工17</t>
+  </si>
+  <si>
+    <t>男员工18</t>
+  </si>
+  <si>
+    <t>男员工19</t>
+  </si>
+  <si>
+    <t>男员工20</t>
+  </si>
+  <si>
+    <t>207;179;155|255;255;255;0;1|255;255;255;0;1|255;255;255;0;1</t>
+  </si>
+  <si>
+    <t>男用头发4</t>
+  </si>
+  <si>
+    <t>193|81|81|0|1</t>
+  </si>
+  <si>
+    <t>Common_Hair_1_1</t>
+  </si>
+  <si>
+    <t>女用头发1</t>
+  </si>
+  <si>
+    <t>Common_Hair_0_1</t>
+  </si>
+  <si>
+    <t>Common_Hat_0_1</t>
+  </si>
+  <si>
+    <t>眼镜01</t>
+  </si>
+  <si>
+    <t>Common_Glasses_0_1</t>
+  </si>
+  <si>
+    <t>通用帽子2</t>
+  </si>
+  <si>
+    <t>Common_Hat_0_2</t>
+  </si>
+  <si>
+    <t>眼镜02</t>
+  </si>
+  <si>
+    <t>Common_Glasses_0_2</t>
+  </si>
+  <si>
+    <t>绿兜帽短裤成年女</t>
+  </si>
+  <si>
+    <t>F_A_N_N_Normal_1_2</t>
+  </si>
+  <si>
+    <t>通用帽子3</t>
+  </si>
+  <si>
+    <t>Common_Hat_0_3</t>
+  </si>
+  <si>
+    <t>眼镜03</t>
+  </si>
+  <si>
+    <t>Common_Glasses_0_3</t>
+  </si>
+  <si>
+    <t>帽子11</t>
+  </si>
+  <si>
+    <t>Common_Hat_1_1</t>
+  </si>
+  <si>
+    <t>眼镜11</t>
+  </si>
+  <si>
+    <t>Common_Glasses_1_1</t>
+  </si>
+  <si>
+    <t>眼镜12</t>
+  </si>
+  <si>
+    <t>Common_Glasses_1_2</t>
+  </si>
+  <si>
+    <t>眼镜13</t>
+  </si>
+  <si>
+    <t>Common_Glasses_1_3</t>
+  </si>
+  <si>
     <t>Common_Hair_1_2_1</t>
   </si>
   <si>
-    <t>男员工3</t>
-  </si>
-  <si>
-    <t>蓝白背心长裤男</t>
-  </si>
-  <si>
-    <t>179;194;214|89;132;170;0;1|129;126;127;0;1|89;132;170;0;1</t>
-  </si>
-  <si>
-    <t>171|171|171|0|1</t>
-  </si>
-  <si>
-    <t>M_A_N_N_normal_2</t>
-  </si>
-  <si>
-    <t>Common_Hair_1_3</t>
-  </si>
-  <si>
-    <t>男员工4</t>
-  </si>
-  <si>
-    <t>168;197;124|149;185;148;0;1|103;95;104;0;1|123;154;125;0;1</t>
-  </si>
-  <si>
-    <t>195|195|195|0|1</t>
-  </si>
-  <si>
-    <t>男员工5</t>
-  </si>
-  <si>
-    <t>255;255;255|255;255;255;0;1|255;255;255;0;1|255;255;255;0;1</t>
-  </si>
-  <si>
-    <t>男用头发3</t>
-  </si>
-  <si>
-    <t>81|75|224|0|1</t>
-  </si>
-  <si>
-    <t>男员工6</t>
-  </si>
-  <si>
-    <t>255;255;255|171;171;171;0;1|183;183;183;0;1|202;202;202;0;1</t>
-  </si>
-  <si>
-    <t>118|118|118|0|1</t>
-  </si>
-  <si>
-    <t>男员工7</t>
-  </si>
-  <si>
-    <t>135|135|135|0|1</t>
-  </si>
-  <si>
-    <t>男员工8</t>
-  </si>
-  <si>
-    <t>男员工9</t>
-  </si>
-  <si>
-    <t>男员工10</t>
-  </si>
-  <si>
-    <t>男员工11</t>
-  </si>
-  <si>
-    <t>男员工12</t>
-  </si>
-  <si>
-    <t>男员工13</t>
-  </si>
-  <si>
-    <t>男员工14</t>
-  </si>
-  <si>
-    <t>男员工15</t>
-  </si>
-  <si>
-    <t>男员工16</t>
-  </si>
-  <si>
-    <t>男员工17</t>
-  </si>
-  <si>
-    <t>男员工18</t>
-  </si>
-  <si>
-    <t>男员工19</t>
-  </si>
-  <si>
-    <t>男员工20</t>
-  </si>
-  <si>
-    <t>女用头发1</t>
-  </si>
-  <si>
-    <t>Common_Hair_0_1</t>
-  </si>
-  <si>
-    <t>Common_Hat_0_1</t>
-  </si>
-  <si>
-    <t>眼镜01</t>
-  </si>
-  <si>
-    <t>Common_Glasses_0_1</t>
-  </si>
-  <si>
-    <t>通用帽子2</t>
-  </si>
-  <si>
-    <t>Common_Hat_0_2</t>
-  </si>
-  <si>
-    <t>眼镜02</t>
-  </si>
-  <si>
-    <t>Common_Glasses_0_2</t>
-  </si>
-  <si>
-    <t>绿兜帽短裤成年女</t>
-  </si>
-  <si>
-    <t>F_A_N_N_Normal_1_2</t>
-  </si>
-  <si>
-    <t>通用帽子3</t>
-  </si>
-  <si>
-    <t>Common_Hat_0_3</t>
-  </si>
-  <si>
-    <t>眼镜03</t>
-  </si>
-  <si>
-    <t>Common_Glasses_0_3</t>
-  </si>
-  <si>
-    <t>默认衣服标准身高体重成年女性</t>
-  </si>
-  <si>
-    <t>F_A_N_N_normal_2</t>
-  </si>
-  <si>
-    <t>帽子11</t>
-  </si>
-  <si>
-    <t>Common_Hat_1_1</t>
-  </si>
-  <si>
-    <t>眼镜11</t>
-  </si>
-  <si>
-    <t>Common_Glasses_1_1</t>
-  </si>
-  <si>
-    <t>眼镜12</t>
-  </si>
-  <si>
-    <t>Common_Glasses_1_2</t>
-  </si>
-  <si>
-    <t>眼镜13</t>
-  </si>
-  <si>
-    <t>Common_Glasses_1_3</t>
+    <t>Common_Hair_1_4</t>
   </si>
   <si>
     <t>骨骼名字</t>
@@ -1663,8 +1669,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AK43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2132,28 +2138,28 @@
         <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
         <v>61</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
         <v>63</v>
       </c>
       <c r="AF7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -2161,28 +2167,28 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
         <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
         <v>61</v>
       </c>
       <c r="N8" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -2190,28 +2196,28 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
         <v>61</v>
       </c>
       <c r="N9" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -2219,28 +2225,28 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J10" t="s">
         <v>61</v>
       </c>
       <c r="N10" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2248,28 +2254,28 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J11" t="s">
         <v>61</v>
       </c>
       <c r="N11" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2277,28 +2283,28 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J12" t="s">
         <v>61</v>
       </c>
       <c r="N12" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2309,57 +2315,57 @@
         <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J13" t="s">
         <v>61</v>
       </c>
       <c r="N13" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:15">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
         <v>108</v>
       </c>
-      <c r="C14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
         <v>109</v>
-      </c>
-      <c r="E14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" t="s">
-        <v>85</v>
       </c>
       <c r="J14" t="s">
         <v>61</v>
       </c>
       <c r="N14" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:15">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2367,25 +2373,25 @@
         <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="J15" t="s">
         <v>61</v>
       </c>
       <c r="N15" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O15" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2393,28 +2399,28 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J16" t="s">
         <v>61</v>
       </c>
       <c r="N16" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -2422,28 +2428,28 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J17" t="s">
         <v>61</v>
       </c>
       <c r="N17" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2451,28 +2457,28 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J18" t="s">
         <v>61</v>
       </c>
       <c r="N18" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2480,28 +2486,28 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J19" t="s">
         <v>61</v>
       </c>
       <c r="N19" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2509,28 +2515,28 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J20" t="s">
         <v>61</v>
       </c>
       <c r="N20" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2538,28 +2544,28 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D21" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J21" t="s">
         <v>61</v>
       </c>
       <c r="N21" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O21" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2567,28 +2573,28 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J22" t="s">
         <v>61</v>
       </c>
       <c r="N22" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2596,28 +2602,28 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J23" t="s">
         <v>61</v>
       </c>
       <c r="N23" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="O23" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2625,28 +2631,28 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" t="s">
         <v>120</v>
       </c>
-      <c r="C24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" t="s">
-        <v>96</v>
-      </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F24" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="J24" t="s">
         <v>61</v>
       </c>
       <c r="N24" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="O24" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2675,7 +2681,7 @@
         <v>126</v>
       </c>
       <c r="O25" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2683,28 +2689,28 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" t="s">
         <v>128</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>129</v>
-      </c>
-      <c r="D26" t="s">
-        <v>130</v>
       </c>
       <c r="E26" t="s">
         <v>124</v>
       </c>
       <c r="F26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J26" t="s">
         <v>61</v>
       </c>
       <c r="N26" t="s">
+        <v>131</v>
+      </c>
+      <c r="O26" t="s">
         <v>132</v>
-      </c>
-      <c r="O26" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2712,28 +2718,28 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" t="s">
         <v>134</v>
-      </c>
-      <c r="C27" t="s">
-        <v>129</v>
-      </c>
-      <c r="D27" t="s">
-        <v>135</v>
       </c>
       <c r="E27" t="s">
         <v>124</v>
       </c>
       <c r="F27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J27" t="s">
         <v>61</v>
       </c>
       <c r="N27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O27" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2741,19 +2747,19 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C28" t="s">
         <v>72</v>
       </c>
       <c r="D28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" t="s">
         <v>138</v>
-      </c>
-      <c r="E28" t="s">
-        <v>139</v>
-      </c>
-      <c r="F28" t="s">
-        <v>140</v>
       </c>
       <c r="J28" t="s">
         <v>61</v>
@@ -2762,7 +2768,7 @@
         <v>76</v>
       </c>
       <c r="O28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2770,25 +2776,25 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
         <v>74</v>
       </c>
       <c r="F29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J29" t="s">
         <v>61</v>
       </c>
       <c r="N29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O29" t="s">
         <v>77</v>
@@ -2799,25 +2805,25 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s">
         <v>74</v>
       </c>
       <c r="F30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J30" t="s">
         <v>61</v>
       </c>
       <c r="N30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O30" t="s">
         <v>77</v>
@@ -2828,25 +2834,25 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E31" t="s">
         <v>74</v>
       </c>
       <c r="F31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J31" t="s">
         <v>61</v>
       </c>
       <c r="N31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O31" t="s">
         <v>77</v>
@@ -2857,25 +2863,25 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E32" t="s">
         <v>74</v>
       </c>
       <c r="F32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J32" t="s">
         <v>61</v>
       </c>
       <c r="N32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O32" t="s">
         <v>77</v>
@@ -2886,28 +2892,28 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="F33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J33" t="s">
         <v>61</v>
       </c>
       <c r="N33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O33" t="s">
         <v>132</v>
-      </c>
-      <c r="O33" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2915,25 +2921,25 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E34" t="s">
         <v>74</v>
       </c>
       <c r="F34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J34" t="s">
         <v>61</v>
       </c>
       <c r="N34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O34" t="s">
         <v>77</v>
@@ -2944,25 +2950,25 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E35" t="s">
         <v>74</v>
       </c>
       <c r="F35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J35" t="s">
         <v>61</v>
       </c>
       <c r="N35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O35" t="s">
         <v>77</v>
@@ -2973,25 +2979,25 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E36" t="s">
         <v>74</v>
       </c>
       <c r="F36" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J36" t="s">
         <v>61</v>
       </c>
       <c r="N36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O36" t="s">
         <v>77</v>
@@ -3002,25 +3008,25 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E37" t="s">
         <v>74</v>
       </c>
       <c r="F37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J37" t="s">
         <v>61</v>
       </c>
       <c r="N37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O37" t="s">
         <v>77</v>
@@ -3031,25 +3037,25 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D38" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E38" t="s">
         <v>74</v>
       </c>
       <c r="F38" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J38" t="s">
         <v>61</v>
       </c>
       <c r="N38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O38" t="s">
         <v>77</v>
@@ -3060,25 +3066,25 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E39" t="s">
         <v>74</v>
       </c>
       <c r="F39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J39" t="s">
         <v>61</v>
       </c>
       <c r="N39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O39" t="s">
         <v>77</v>
@@ -3089,25 +3095,25 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E40" t="s">
         <v>74</v>
       </c>
       <c r="F40" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J40" t="s">
         <v>61</v>
       </c>
       <c r="N40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O40" t="s">
         <v>77</v>
@@ -3118,25 +3124,25 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E41" t="s">
         <v>74</v>
       </c>
       <c r="F41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J41" t="s">
         <v>61</v>
       </c>
       <c r="N41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O41" t="s">
         <v>77</v>
@@ -3147,25 +3153,25 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E42" t="s">
         <v>74</v>
       </c>
       <c r="F42" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J42" t="s">
         <v>61</v>
       </c>
       <c r="N42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" t="s">
         <v>77</v>
@@ -3176,28 +3182,28 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" t="s">
         <v>158</v>
       </c>
-      <c r="C43" t="s">
-        <v>129</v>
-      </c>
-      <c r="D43" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" t="s">
-        <v>74</v>
-      </c>
       <c r="F43" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="J43" t="s">
         <v>61</v>
       </c>
       <c r="N43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" t="s">
-        <v>77</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -3209,25 +3215,25 @@
       <formula1>辅助表!$A$5:$A$100</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E25 E26 E27 E28 E29 E30 E31 E32 E33 E34 E35 E36 E37 E38 E39 E40 E41 E42 E43 E44:E50">
-      <formula1>辅助表!$C$6:$C$100</formula1>
+      <formula1>辅助表!$C$7:$C$100</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L100">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14 G15 G4:G13 G16:G100">
+      <formula1>辅助表!$E$2:$E$100</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M14 M15 M4:M13 M16:M100">
+      <formula1>辅助表!$M$2:$M$100</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I14 I15 I4:I13 I16:I100">
+      <formula1>辅助表!$G$2:$G$100</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14 K15 K4:K13 K16:K100">
+      <formula1>辅助表!$I$2:$I$100</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L14 L15 L4:L13 L16:L100">
       <formula1>辅助表!$K$2:$K$100</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C3 C76:C1048576">
       <formula1>辅助表!$A$5:$A$29</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G100">
-      <formula1>辅助表!$E$2:$E$100</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I100">
-      <formula1>辅助表!$G$2:$G$100</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K100">
-      <formula1>辅助表!$I$2:$I$100</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M4:M100">
-      <formula1>辅助表!$M$2:$M$100</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3242,7 +3248,7 @@
   <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3309,22 +3315,22 @@
         <v>62</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>60</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -3337,28 +3343,28 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -3371,28 +3377,28 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -3405,10 +3411,10 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="7" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>58</v>
@@ -3439,16 +3445,16 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -3475,10 +3481,10 @@
         <v>126</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -3505,10 +3511,10 @@
         <v>76</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -3526,8 +3532,12 @@
     <row r="9" spans="1:16">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -3544,8 +3554,12 @@
     <row r="10" spans="1:16">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>185</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -5205,10 +5219,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -5226,10 +5240,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="3"/>
@@ -5268,10 +5282,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5279,10 +5293,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5290,10 +5304,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5301,10 +5315,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5312,10 +5326,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5323,10 +5337,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/mobi_client/mobi_client/mobi_config/excel/995_NPC组装表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/excel/995_NPC组装表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="19290" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="NPC_Factory" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="214">
   <si>
     <t>id</t>
   </si>
@@ -189,16 +189,13 @@
     <t>家庭主妇成年女</t>
   </si>
   <si>
-    <t>255;255;255|255;255;255;0.2;0.2|255;255;255;0.2;0.2|255;255;255;0.2;0.2</t>
+    <t>255;255;255|255;166;134;0;1|89;36;36;0159;0.365|65;54;54;0;1</t>
   </si>
   <si>
     <t>女用头发7</t>
   </si>
   <si>
-    <t>255|255|255|0.2|0.2</t>
-  </si>
-  <si>
-    <t>通用帽子1</t>
+    <t>158|173|158|0|1</t>
   </si>
   <si>
     <t>255|255|255</t>
@@ -268,120 +265,165 @@
     <t>默认衣服标准身高体重成年女性</t>
   </si>
   <si>
+    <t>255;255;255|124;196;250;0;0.65|82;75;75;0;1|48;48;48;0.94;1</t>
+  </si>
+  <si>
+    <t>女用头发8</t>
+  </si>
+  <si>
+    <t>221|152|53|0|1</t>
+  </si>
+  <si>
+    <t>通用帽子1</t>
+  </si>
+  <si>
+    <t>126|146|255</t>
+  </si>
+  <si>
+    <t>眼镜02</t>
+  </si>
+  <si>
+    <t>185|29|210</t>
+  </si>
+  <si>
+    <t>F_A_N_N_normal_2</t>
+  </si>
+  <si>
+    <t>Common_Hair_0_8</t>
+  </si>
+  <si>
+    <t>Common_Glasses_0_2</t>
+  </si>
+  <si>
+    <t>A为成年</t>
+  </si>
+  <si>
+    <t>F为胖</t>
+  </si>
+  <si>
+    <t>S为矮</t>
+  </si>
+  <si>
+    <t>标准成女3</t>
+  </si>
+  <si>
+    <t>灰兜帽短裤成年女</t>
+  </si>
+  <si>
+    <t>255;255;255|137;167;219;0;1|227;255;0;0;0.68|255;0;44;0;1</t>
+  </si>
+  <si>
+    <t>女用头发6</t>
+  </si>
+  <si>
+    <t>164|0|0|0|1</t>
+  </si>
+  <si>
+    <t>F_A_N_N_Normal_1_1</t>
+  </si>
+  <si>
+    <t>E为老年</t>
+  </si>
+  <si>
+    <t>标准成女4</t>
+  </si>
+  <si>
+    <t>Common_Hair_0_6</t>
+  </si>
+  <si>
+    <t>标准成女5</t>
+  </si>
+  <si>
+    <t>女用头发2</t>
+  </si>
+  <si>
+    <t>Common_Hair_0_2</t>
+  </si>
+  <si>
+    <t>标准成女6</t>
+  </si>
+  <si>
+    <t>255;255;255|255;154;148;0;1|255;230;198;0;1|166;122;112;0;1</t>
+  </si>
+  <si>
+    <t>F_A_N_N_Normal_1_2</t>
+  </si>
+  <si>
+    <t>标准成女7</t>
+  </si>
+  <si>
+    <t>标准成女8</t>
+  </si>
+  <si>
+    <t>标准成女9</t>
+  </si>
+  <si>
+    <t>标准成女10</t>
+  </si>
+  <si>
+    <t>255;255;255|229;51;73;0;0.65|94;40;6;0;1|255;207;126;0.94;1</t>
+  </si>
+  <si>
+    <t>200|255|194|0|1</t>
+  </si>
+  <si>
+    <t>Common_Hair_0_1</t>
+  </si>
+  <si>
+    <t>Common_Hat_0_3</t>
+  </si>
+  <si>
+    <t>Common_Glasses_0_3</t>
+  </si>
+  <si>
+    <t>标准成女11</t>
+  </si>
+  <si>
+    <t>255;255;146|137;167;219;0;1|227;255;0;0;0.68|255;0;44;0;1</t>
+  </si>
+  <si>
+    <t>标准成女12</t>
+  </si>
+  <si>
+    <t>标准成女13</t>
+  </si>
+  <si>
+    <t>255;255;255|255;160;179;0;0.28|248;219;219;0;1|255;255;255;0;1</t>
+  </si>
+  <si>
+    <t>115|99|99|0|1</t>
+  </si>
+  <si>
+    <t>眼镜01</t>
+  </si>
+  <si>
+    <t>Common_Glasses_0_1</t>
+  </si>
+  <si>
+    <t>标准成女14</t>
+  </si>
+  <si>
+    <t>标准成女15</t>
+  </si>
+  <si>
+    <t>标准成女16</t>
+  </si>
+  <si>
+    <t>标准成女17</t>
+  </si>
+  <si>
+    <t>标准成女18</t>
+  </si>
+  <si>
+    <t>标准成女19</t>
+  </si>
+  <si>
+    <t>标准成女20</t>
+  </si>
+  <si>
     <t>255;255;255|230;20;20;0;1|80;195;49;0;1|57;140;36;0;1</t>
   </si>
   <si>
-    <t>女用头发8</t>
-  </si>
-  <si>
-    <t>221|152|53|0|1</t>
-  </si>
-  <si>
-    <t>F_A_N_N_normal_2</t>
-  </si>
-  <si>
-    <t>Common_Hair_0_8</t>
-  </si>
-  <si>
-    <t>A为成年</t>
-  </si>
-  <si>
-    <t>F为胖</t>
-  </si>
-  <si>
-    <t>S为矮</t>
-  </si>
-  <si>
-    <t>标准成女3</t>
-  </si>
-  <si>
-    <t>灰兜帽短裤成年女</t>
-  </si>
-  <si>
-    <t>255;255;255|137;167;219;0;1|227;255;0;0;0.68|255;0;44;0;1</t>
-  </si>
-  <si>
-    <t>女用头发6</t>
-  </si>
-  <si>
-    <t>164|0|0|0|1</t>
-  </si>
-  <si>
-    <t>F_A_N_N_Normal_1_1</t>
-  </si>
-  <si>
-    <t>E为老年</t>
-  </si>
-  <si>
-    <t>标准成女4</t>
-  </si>
-  <si>
-    <t>Common_Hair_0_6</t>
-  </si>
-  <si>
-    <t>标准成女5</t>
-  </si>
-  <si>
-    <t>女用头发2</t>
-  </si>
-  <si>
-    <t>Common_Hair_0_2</t>
-  </si>
-  <si>
-    <t>标准成女6</t>
-  </si>
-  <si>
-    <t>标准成女7</t>
-  </si>
-  <si>
-    <t>标准成女8</t>
-  </si>
-  <si>
-    <t>标准成女9</t>
-  </si>
-  <si>
-    <t>标准成女10</t>
-  </si>
-  <si>
-    <t>255;255;146|137;167;219;0;1|227;255;0;0;0.68|255;0;44;0;1</t>
-  </si>
-  <si>
-    <t>200|255|194|0|1</t>
-  </si>
-  <si>
-    <t>标准成女11</t>
-  </si>
-  <si>
-    <t>标准成女12</t>
-  </si>
-  <si>
-    <t>标准成女13</t>
-  </si>
-  <si>
-    <t>标准成女14</t>
-  </si>
-  <si>
-    <t>标准成女15</t>
-  </si>
-  <si>
-    <t>标准成女16</t>
-  </si>
-  <si>
-    <t>标准成女17</t>
-  </si>
-  <si>
-    <t>标准成女18</t>
-  </si>
-  <si>
-    <t>标准成女19</t>
-  </si>
-  <si>
-    <t>标准成女20</t>
-  </si>
-  <si>
-    <t>255;255;255|66;134;255;0;1|22;0;106;0;1|0;130;255;0;1</t>
-  </si>
-  <si>
     <t>"嫌疑人"</t>
   </si>
   <si>
@@ -400,51 +442,63 @@
     <t>M_A_N_N_normal_2_1</t>
   </si>
   <si>
-    <t>男员工3</t>
+    <t>鬼鬼祟祟的男子</t>
   </si>
   <si>
     <t>蓝白背心长裤男</t>
   </si>
   <si>
-    <t>179;194;214|89;132;170;0;1|129;126;127;0;1|89;132;170;0;1</t>
-  </si>
-  <si>
-    <t>171|171|171|0|1</t>
+    <t>255;255;255|56;49;63;0.7;0.35|82;45;156;0.09;0.28|226;142;151;0.5;0.2</t>
+  </si>
+  <si>
+    <t>143|105|190|0|1</t>
+  </si>
+  <si>
+    <t>Common_Hair_1_3</t>
+  </si>
+  <si>
+    <t>Common_Glasses_1_3</t>
+  </si>
+  <si>
+    <t>猥琐男</t>
+  </si>
+  <si>
+    <t>255;255;255|221;90;85;0;1|200;200;200;0;1|152;119;117;0;1</t>
+  </si>
+  <si>
+    <t>男用头发4</t>
+  </si>
+  <si>
+    <t>147|137|111|0|1</t>
+  </si>
+  <si>
+    <t>M_A_N_N_normal_1_2</t>
+  </si>
+  <si>
+    <t>Common_Hair_1_4</t>
+  </si>
+  <si>
+    <t>屋主人</t>
+  </si>
+  <si>
+    <t>男用头发3</t>
+  </si>
+  <si>
+    <t>81|75|224|0|1</t>
+  </si>
+  <si>
+    <t>神秘商店</t>
+  </si>
+  <si>
+    <t>0;26;46|171;171;171;0;1|183;183;183;0;1|202;202;202;0;1</t>
+  </si>
+  <si>
+    <t>21|0|115|0|1</t>
   </si>
   <si>
     <t>M_A_N_N_normal_2</t>
   </si>
   <si>
-    <t>Common_Hair_1_3</t>
-  </si>
-  <si>
-    <t>男员工4</t>
-  </si>
-  <si>
-    <t>168;197;124|149;185;148;0;1|103;95;104;0;1|123;154;125;0;1</t>
-  </si>
-  <si>
-    <t>195|195|195|0|1</t>
-  </si>
-  <si>
-    <t>男员工5</t>
-  </si>
-  <si>
-    <t>男用头发3</t>
-  </si>
-  <si>
-    <t>81|75|224|0|1</t>
-  </si>
-  <si>
-    <t>男员工6</t>
-  </si>
-  <si>
-    <t>255;255;255|171;171;171;0;1|183;183;183;0;1|202;202;202;0;1</t>
-  </si>
-  <si>
-    <t>118|118|118|0|1</t>
-  </si>
-  <si>
     <t>男员工7</t>
   </si>
   <si>
@@ -457,16 +511,43 @@
     <t>男员工9</t>
   </si>
   <si>
-    <t>男员工10</t>
+    <t>衣着精致的男人</t>
+  </si>
+  <si>
+    <t>255;255;255|238;238;238;0;0.5|191;108;241;0;1|142;53;83;0;0.55</t>
+  </si>
+  <si>
+    <t>79|94|79|0|1</t>
+  </si>
+  <si>
+    <t>Common_Glasses_1_2</t>
   </si>
   <si>
     <t>男员工11</t>
   </si>
   <si>
-    <t>男员工12</t>
-  </si>
-  <si>
-    <t>男员工13</t>
+    <t>新郎</t>
+  </si>
+  <si>
+    <t>255;255;255|255;255;255;0;1|255;255;255;0;1|58;73;183;0;1</t>
+  </si>
+  <si>
+    <t>241|201|187|0|1</t>
+  </si>
+  <si>
+    <t>眼镜12</t>
+  </si>
+  <si>
+    <t>Common_Hair_1_1</t>
+  </si>
+  <si>
+    <t>司机</t>
+  </si>
+  <si>
+    <t>255;255;255|255;124;124;0;1|103;103;103;0;1|255;255;255;0;1</t>
+  </si>
+  <si>
+    <t>72|87|71|0|1</t>
   </si>
   <si>
     <t>男员工14</t>
@@ -487,66 +568,36 @@
     <t>男员工19</t>
   </si>
   <si>
-    <t>男员工20</t>
-  </si>
-  <si>
-    <t>207;179;155|255;255;255;0;1|255;255;255;0;1|255;255;255;0;1</t>
-  </si>
-  <si>
-    <t>男用头发4</t>
-  </si>
-  <si>
-    <t>193|81|81|0|1</t>
-  </si>
-  <si>
-    <t>Common_Hair_1_1</t>
+    <t>卢斌</t>
+  </si>
+  <si>
+    <t>255;255;255|90;109;137;0;1|243;243;243;0.15;0.5|226;142;151;0.5;0.2</t>
+  </si>
+  <si>
+    <t>185|181|192|0|1</t>
   </si>
   <si>
     <t>女用头发1</t>
   </si>
   <si>
-    <t>Common_Hair_0_1</t>
-  </si>
-  <si>
     <t>Common_Hat_0_1</t>
   </si>
   <si>
-    <t>眼镜01</t>
-  </si>
-  <si>
-    <t>Common_Glasses_0_1</t>
-  </si>
-  <si>
     <t>通用帽子2</t>
   </si>
   <si>
     <t>Common_Hat_0_2</t>
   </si>
   <si>
-    <t>眼镜02</t>
-  </si>
-  <si>
-    <t>Common_Glasses_0_2</t>
-  </si>
-  <si>
     <t>绿兜帽短裤成年女</t>
   </si>
   <si>
-    <t>F_A_N_N_Normal_1_2</t>
-  </si>
-  <si>
     <t>通用帽子3</t>
   </si>
   <si>
-    <t>Common_Hat_0_3</t>
-  </si>
-  <si>
     <t>眼镜03</t>
   </si>
   <si>
-    <t>Common_Glasses_0_3</t>
-  </si>
-  <si>
     <t>帽子11</t>
   </si>
   <si>
@@ -559,22 +610,10 @@
     <t>Common_Glasses_1_1</t>
   </si>
   <si>
-    <t>眼镜12</t>
-  </si>
-  <si>
-    <t>Common_Glasses_1_2</t>
-  </si>
-  <si>
     <t>眼镜13</t>
   </si>
   <si>
-    <t>Common_Glasses_1_3</t>
-  </si>
-  <si>
     <t>Common_Hair_1_2_1</t>
-  </si>
-  <si>
-    <t>Common_Hair_1_4</t>
   </si>
   <si>
     <t>骨骼名字</t>
@@ -632,7 +671,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -657,6 +696,12 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -804,7 +849,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -832,6 +877,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,10 +1196,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1157,36 +1208,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1196,101 +1244,104 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1315,7 +1366,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1670,7 +1730,7 @@
   <dimension ref="A1:AK43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1688,10 +1748,9 @@
     <col min="11" max="11" width="30.375" customWidth="1"/>
     <col min="12" max="12" width="31.5" customWidth="1"/>
     <col min="13" max="13" width="26" customWidth="1"/>
-    <col min="14" max="14" width="22.625" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="14" max="15" width="22.625" customWidth="1"/>
     <col min="16" max="16" width="24.875" customWidth="1"/>
-    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="17" max="17" width="23.25" customWidth="1"/>
     <col min="18" max="18" width="14.875" customWidth="1"/>
     <col min="19" max="19" width="13.75" customWidth="1"/>
     <col min="20" max="20" width="16" customWidth="1"/>
@@ -1971,80 +2030,76 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:37">
-      <c r="A4">
+    <row r="4" s="8" customFormat="1" ht="15" customHeight="1" spans="1:37">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="J4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H4" t="s">
+      <c r="N4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="J4" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="O4" t="s">
-        <v>63</v>
-      </c>
-      <c r="P4" t="str">
+      <c r="P4" s="8" t="str">
         <f>IFERROR(VLOOKUP(G4,辅助表!E2:F100,2),"")</f>
-        <v>Common_Hat_0_1</v>
-      </c>
-      <c r="Q4" t="str">
+        <v/>
+      </c>
+      <c r="Q4" s="8" t="str">
         <f>IFERROR(VLOOKUP(I4,辅助表!G2:H100,2),"")</f>
         <v/>
       </c>
-      <c r="R4" t="str">
+      <c r="R4" s="8" t="str">
         <f>IFERROR(VLOOKUP(K4,辅助表!I2:J100,2),"")</f>
         <v/>
       </c>
-      <c r="S4" t="str">
+      <c r="S4" s="8" t="str">
         <f>IFERROR(VLOOKUP(L4,辅助表!K2:L100,2),"")</f>
         <v/>
       </c>
-      <c r="T4" t="str">
+      <c r="T4" s="8" t="str">
         <f>IFERROR(VLOOKUP(M4,辅助表!M2:N100,2),"")</f>
         <v/>
       </c>
-      <c r="AE4" t="s">
+      <c r="AE4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AJ4" s="8" t="s">
+      <c r="AK4" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="AK4" s="8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -2052,607 +2107,628 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
         <v>71</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>72</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>73</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>74</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" t="s">
         <v>75</v>
       </c>
-      <c r="J5" t="s">
-        <v>61</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>76</v>
       </c>
-      <c r="O5" t="s">
+      <c r="AE5" t="s">
         <v>77</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>78</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>79</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" s="8" customFormat="1" spans="1:34">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AH5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="J6" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="H6" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="O6" t="s">
+      <c r="I6" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="P6" t="str">
-        <f>IFERROR(VLOOKUP(G6,辅助表!E4:F102,2),"")</f>
-        <v/>
-      </c>
-      <c r="AF6" t="s">
+      <c r="J6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="N6" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="O6" s="8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:32">
-      <c r="A7">
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" s="8" customFormat="1" spans="1:32">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B7" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="J7" t="s">
-        <v>61</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="C7" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="O7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF7" t="s">
+      <c r="D7" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8">
+      <c r="E7" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF7" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" s="8" customFormat="1" spans="1:15">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" s="8" customFormat="1" spans="1:15">
+      <c r="A9" s="8">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" s="8" customFormat="1" spans="1:15">
+      <c r="A10" s="8">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F10" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" s="8" customFormat="1" spans="1:15">
+      <c r="A11" s="8">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" s="8" customFormat="1" spans="1:15">
+      <c r="A12" s="8">
+        <v>9</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" s="8" customFormat="1" spans="1:15">
+      <c r="A13" s="8">
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" s="8" customFormat="1" spans="1:17">
+      <c r="A14" s="8">
+        <v>11</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F8" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" t="s">
-        <v>61</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="F14" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" s="8" customFormat="1" spans="1:15">
+      <c r="A15" s="8">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="O8" t="s">
+      <c r="D15" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" s="8" customFormat="1" spans="1:15">
+      <c r="A16" s="8">
+        <v>13</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="J16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N16" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" t="s">
-        <v>61</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="O16" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" s="8" customFormat="1" spans="1:17">
+      <c r="A17" s="8">
+        <v>14</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="O9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D17" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O17" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10" t="s">
-        <v>61</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="Q17" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" s="8" customFormat="1" spans="1:15">
+      <c r="A18" s="8">
+        <v>15</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="O10" t="s">
+      <c r="D18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" t="s">
-        <v>61</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="J18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" s="8" customFormat="1" spans="1:15">
+      <c r="A19" s="8">
+        <v>16</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="O11" t="s">
+      <c r="D19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" t="s">
-        <v>61</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="J19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" s="8" customFormat="1" spans="1:15">
+      <c r="A20" s="8">
+        <v>17</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="O12" t="s">
+      <c r="D20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" t="s">
-        <v>61</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="J20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" s="8" customFormat="1" spans="1:15">
+      <c r="A21" s="8">
+        <v>18</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="O13" t="s">
+      <c r="D21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:15">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" t="s">
-        <v>109</v>
-      </c>
-      <c r="J14" t="s">
-        <v>61</v>
-      </c>
-      <c r="N14" t="s">
+      <c r="J21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" s="8" customFormat="1" spans="1:15">
+      <c r="A22" s="8">
+        <v>19</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="O14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:15">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" t="s">
-        <v>109</v>
-      </c>
-      <c r="J15" t="s">
-        <v>61</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="D22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" s="8" customFormat="1" spans="1:15">
+      <c r="A23" s="8">
+        <v>20</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="O15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" t="s">
-        <v>95</v>
-      </c>
-      <c r="J16" t="s">
-        <v>61</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="D23" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" s="8" customFormat="1" spans="1:15">
+      <c r="A24" s="8">
+        <v>21</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="O16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" t="s">
-        <v>95</v>
-      </c>
-      <c r="J17" t="s">
-        <v>61</v>
-      </c>
-      <c r="N17" t="s">
-        <v>96</v>
-      </c>
-      <c r="O17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" t="s">
-        <v>95</v>
-      </c>
-      <c r="J18" t="s">
-        <v>61</v>
-      </c>
-      <c r="N18" t="s">
-        <v>96</v>
-      </c>
-      <c r="O18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" t="s">
-        <v>95</v>
-      </c>
-      <c r="J19" t="s">
-        <v>61</v>
-      </c>
-      <c r="N19" t="s">
-        <v>96</v>
-      </c>
-      <c r="O19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" t="s">
-        <v>95</v>
-      </c>
-      <c r="J20" t="s">
-        <v>61</v>
-      </c>
-      <c r="N20" t="s">
-        <v>96</v>
-      </c>
-      <c r="O20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" t="s">
-        <v>95</v>
-      </c>
-      <c r="J21" t="s">
-        <v>61</v>
-      </c>
-      <c r="N21" t="s">
-        <v>96</v>
-      </c>
-      <c r="O21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" t="s">
-        <v>95</v>
-      </c>
-      <c r="J22" t="s">
-        <v>61</v>
-      </c>
-      <c r="N22" t="s">
-        <v>96</v>
-      </c>
-      <c r="O22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" t="s">
-        <v>95</v>
-      </c>
-      <c r="J23" t="s">
-        <v>61</v>
-      </c>
-      <c r="N23" t="s">
-        <v>96</v>
-      </c>
-      <c r="O23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" t="s">
-        <v>95</v>
-      </c>
-      <c r="J24" t="s">
-        <v>61</v>
-      </c>
-      <c r="N24" t="s">
-        <v>62</v>
-      </c>
-      <c r="O24" t="s">
-        <v>87</v>
+      <c r="D24" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2660,57 +2736,60 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F25" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="J25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N25" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="O25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="F26" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="J26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N26" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="O26" t="s">
-        <v>132</v>
+        <v>145</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2718,28 +2797,28 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="F27" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N27" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="O27" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2747,57 +2826,60 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
         <v>72</v>
       </c>
-      <c r="D28" t="s">
-        <v>73</v>
-      </c>
       <c r="E28" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F28" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="J28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O28" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F29" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="J29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N29" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="O29" t="s">
-        <v>77</v>
+        <v>152</v>
+      </c>
+      <c r="Q29" s="10" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2805,28 +2887,28 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" t="s">
         <v>142</v>
       </c>
-      <c r="C30" t="s">
-        <v>128</v>
-      </c>
       <c r="D30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" t="s">
         <v>73</v>
       </c>
-      <c r="E30" t="s">
-        <v>74</v>
-      </c>
       <c r="F30" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="J30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N30" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="O30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2834,28 +2916,28 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" t="s">
         <v>73</v>
       </c>
-      <c r="E31" t="s">
-        <v>74</v>
-      </c>
       <c r="F31" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="J31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N31" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="O31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2863,57 +2945,60 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" t="s">
         <v>73</v>
       </c>
-      <c r="E32" t="s">
-        <v>74</v>
-      </c>
       <c r="F32" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="J32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N32" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="O32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F33" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="J33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N33" t="s">
+        <v>75</v>
+      </c>
+      <c r="O33" t="s">
         <v>76</v>
       </c>
-      <c r="O33" t="s">
-        <v>132</v>
+      <c r="Q33" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2921,57 +3006,63 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="C34" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" t="s">
         <v>73</v>
       </c>
-      <c r="E34" t="s">
-        <v>74</v>
-      </c>
       <c r="F34" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="J34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N34" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="O34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="C35" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D35" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" t="s">
         <v>73</v>
       </c>
-      <c r="E35" t="s">
-        <v>74</v>
-      </c>
       <c r="F35" t="s">
-        <v>143</v>
+        <v>171</v>
+      </c>
+      <c r="I35" t="s">
+        <v>172</v>
       </c>
       <c r="J35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N35" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="O35" t="s">
-        <v>77</v>
+        <v>173</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2979,28 +3070,28 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D36" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" t="s">
         <v>73</v>
       </c>
-      <c r="E36" t="s">
-        <v>74</v>
-      </c>
       <c r="F36" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="J36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N36" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="O36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -3008,28 +3099,28 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" t="s">
         <v>73</v>
       </c>
-      <c r="E37" t="s">
-        <v>74</v>
-      </c>
       <c r="F37" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="J37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N37" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="O37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -3037,28 +3128,28 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" t="s">
         <v>73</v>
       </c>
-      <c r="E38" t="s">
-        <v>74</v>
-      </c>
       <c r="F38" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="J38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N38" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="O38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -3066,28 +3157,28 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" t="s">
         <v>73</v>
       </c>
-      <c r="E39" t="s">
-        <v>74</v>
-      </c>
       <c r="F39" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="J39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N39" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="O39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -3095,28 +3186,28 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" t="s">
         <v>73</v>
       </c>
-      <c r="E40" t="s">
-        <v>74</v>
-      </c>
       <c r="F40" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="J40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N40" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="O40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -3124,28 +3215,28 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" t="s">
         <v>73</v>
       </c>
-      <c r="E41" t="s">
-        <v>74</v>
-      </c>
       <c r="F41" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="J41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N41" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="O41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -3153,28 +3244,28 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D42" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" t="s">
         <v>73</v>
       </c>
-      <c r="E42" t="s">
-        <v>74</v>
-      </c>
       <c r="F42" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="J42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N42" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="O42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3182,28 +3273,28 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="E43" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="F43" t="s">
+        <v>185</v>
+      </c>
+      <c r="J43" t="s">
+        <v>60</v>
+      </c>
+      <c r="N43" t="s">
         <v>159</v>
       </c>
-      <c r="J43" t="s">
-        <v>61</v>
-      </c>
-      <c r="N43" t="s">
-        <v>131</v>
-      </c>
       <c r="O43" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3312,25 +3403,25 @@
         <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -3343,28 +3434,28 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -3377,28 +3468,28 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -3411,28 +3502,28 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -3445,24 +3536,24 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -3475,24 +3566,24 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="7" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -3505,16 +3596,16 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -3533,10 +3624,10 @@
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -3555,10 +3646,10 @@
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -5219,10 +5310,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -5240,10 +5331,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="3"/>
@@ -5282,10 +5373,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5293,10 +5384,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5304,10 +5395,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5315,10 +5406,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5326,10 +5417,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5337,10 +5428,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
